--- a/resources/performance-testing-result/performance-testing-result.xlsx
+++ b/resources/performance-testing-result/performance-testing-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\sqa\jmeter\Random-User-API-Performance-Test-Load-and-Stress\resources\performance-testing-result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\sqa\Random-User-API-Performance-Test-Load-and-Stress-using-Jmeter\resources\performance-testing-result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF5EABD-7636-4449-905E-CB33135361AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F803B857-833B-411D-8D8D-663B78C04990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{C8DDE181-E841-443F-B2C2-EEAC9DA02DA1}"/>
+    <workbookView xWindow="16905" yWindow="2775" windowWidth="20940" windowHeight="17550" activeTab="1" xr2:uid="{C8DDE181-E841-443F-B2C2-EEAC9DA02DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Load testing" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Minute</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Stress test successful in the expected stress</t>
-  </si>
-  <si>
-    <t>&gt;2.78</t>
   </si>
 </sst>
 </file>
@@ -344,35 +341,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,7 +382,31 @@
     <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -741,304 +735,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="10">
         <v>12</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="10">
         <f>B4*60</f>
         <v>720</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="10">
         <f>C4*60</f>
         <v>43200</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>120000</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="3">
         <v>2.7777777777777777</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="8">
         <f>E4/D4</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="3">
         <v>83</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="3">
         <v>2.7</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>60</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="3">
         <v>166</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="3">
         <v>2.7</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>90</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="3">
         <v>249</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="3">
         <v>2.7</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>105</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="3">
         <v>290</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="3">
         <v>2.7</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>110</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="3">
         <v>304</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="3">
         <v>2.7</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>112</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="3">
         <v>310</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="3">
         <v>2.7</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>115</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="3">
         <v>318</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>118</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="3">
         <v>326</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="3">
         <v>2.7</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>119</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="3">
         <v>329</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="3">
         <v>2.7</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>120</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="3">
         <v>332</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8">
         <v>2.7</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1053,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BB195D-0770-4B2D-9091-DDB9DCFAF1C5}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,215 +1059,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="10">
         <v>12</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="10">
         <f>B4*60</f>
         <v>720</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="10">
         <f>C4*60</f>
         <v>43200</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="10">
         <v>120000</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="F5" s="23">
-        <f>E4/D4</f>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="G5" s="14"/>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="13">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3">
+        <v>166</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="22">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="13">
         <v>60</v>
       </c>
-      <c r="E6" s="12">
-        <v>166</v>
-      </c>
-      <c r="F6" s="22">
-        <v>2.7</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="E6" s="3">
+        <v>200</v>
+      </c>
+      <c r="F6" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="G6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="22">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="13">
         <v>60</v>
       </c>
-      <c r="E7" s="12">
-        <v>200</v>
-      </c>
-      <c r="F7" s="22">
-        <v>3.3</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="E7" s="3">
+        <v>300</v>
+      </c>
+      <c r="F7" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="22">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="13">
         <v>60</v>
       </c>
-      <c r="E8" s="12">
-        <v>300</v>
-      </c>
-      <c r="F8" s="22">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="13">
+        <v>17</v>
+      </c>
+      <c r="G8" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="22">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="13">
         <v>60</v>
       </c>
-      <c r="E9" s="12">
-        <v>500</v>
-      </c>
-      <c r="F9" s="22">
-        <v>17</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="22">
-        <v>60</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="E9" s="3">
         <v>50000000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F9" s="13">
         <v>2000</v>
       </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
